--- a/medicine/Hématologie/CFU-GEMM/CFU-GEMM.xlsx
+++ b/medicine/Hématologie/CFU-GEMM/CFU-GEMM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CFU-GEMM est un type de cellules, progéniteur de la lignée myéloïde. CFU-GEMM signifie : CFU pour Colony Forming Unit et GEMM pour Granulocyte (les polynucléaires), Érythrocytes (les futurs globules rouges), Monocytes et Mégacaryocyte.
 Il intervient lors de l'hématopoïèse, en effet la cellule souche hématopoïétique se trouvant dans la moelle peut se diviser selon deux voies : la lignée myéloïde ou la lignée lymphoïde. La voie lymphoïde donne les lymphocytes B et T, la voie myéloïde donne les polynucléaires neutrophiles, basophiles, éosinophiles ainsi que les monocytes, mégacaryocytes (qui produisent les plaquettes) et les réticulocytes (futurs globules rouges).
